--- a/docs/build_instructions_3D_printed.xlsx
+++ b/docs/build_instructions_3D_printed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="377" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4DB4190-50AC-4FEB-907A-FC490E94A10B}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AED60727-EC51-4D5C-AD93-6CE787C1AF51}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="case_10" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="0">case_1!$A$10</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">case_1!$A$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -113,6 +113,48 @@
   </si>
   <si>
     <t>#4 x 5/8” flat head wood screws (100 pieces)</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Notes &amp; alternatives</t>
+  </si>
+  <si>
+    <t>Also tested with a 2B, 3A+, 3B, 3B+, 4B. Do not use Pi Zero.</t>
+  </si>
+  <si>
+    <t>Or Newark 81AC2845. Or order one for your region/plug.</t>
+  </si>
+  <si>
+    <t>Or Amazon B01L5ULRUA</t>
+  </si>
+  <si>
+    <t>Or Amazon B004JX64FE</t>
+  </si>
+  <si>
+    <t>Or Amazon B06XXV8RTR</t>
+  </si>
+  <si>
+    <t>Or Amazon B07KJYR8K1. Or search Amazon for KY-016.</t>
+  </si>
+  <si>
+    <t>Or Amazon B06XQTHDRR.</t>
+  </si>
+  <si>
+    <t>Prices will vary. Does not include tax, shipping.</t>
+  </si>
+  <si>
+    <t>Or buy at your local hardware store for less</t>
+  </si>
+  <si>
+    <t>Or upgrade to Amazon B06XWN9Q99 or any 16GB+ card</t>
+  </si>
+  <si>
+    <t>Or Amazon B077Y149DL or other physically small USB drive</t>
+  </si>
+  <si>
+    <t>Or Amazon B00SUIKMJ8 or audio cable with right angle bend</t>
   </si>
 </sst>
 </file>
@@ -185,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,10 +275,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,29 +299,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,170 +627,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C2" s="8">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C3" s="8">
         <v>4.99</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C4" s="8">
         <v>3.95</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C5" s="8">
         <v>2.69</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="8">
         <v>4.32</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="8">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="8">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="8">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C10" s="8">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C11" s="8">
         <v>7.99</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="8">
         <v>6.75</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="19">
-        <f>SUM(C1:C11)</f>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="16">
+        <f>SUM(C2:C12)</f>
         <v>73.92</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.amazon.com/KY-016-Colors-Sensor-Arduino-Starter/dp/B0786CQD5P/ref=sr_1_1?keywords=KY-016&amp;qid=1572122200&amp;sr=8-1" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
-    <hyperlink ref="A1" r:id="rId10" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{29969E69-8781-4713-97DB-937DA5838B6A}"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.amazon.com/KY-016-Colors-Sensor-Arduino-Starter/dp/B0786CQD5P/ref=sr_1_1?keywords=KY-016&amp;qid=1572122200&amp;sr=8-1" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
+    <hyperlink ref="A2" r:id="rId10" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{29969E69-8781-4713-97DB-937DA5838B6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
@@ -781,324 +872,324 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>20</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" ref="E5:E14" si="0">C5*D5</f>
         <v>200</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F14" si="1">E5/$B$2</f>
         <v>20</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>4.99</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>49.900000000000006</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2.69</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>26.9</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>2.69</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>4.99</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>14.97</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>1.4970000000000001</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1.92</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="1"/>
         <v>0.192</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>2.11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>8.44</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>0.84399999999999997</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>4.75</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>5.6</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>6.75</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" ref="E15" si="2">C15*D15</f>
         <v>6.75</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="3">E15/$B$2</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="15">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12">
         <f>SUM(F5:F15)</f>
         <v>44.288000000000004</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
     </row>
